--- a/Observations__001.xlsx
+++ b/Observations__001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\bepuphysics2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902ADD57-3D16-42D2-B2E7-B500E1875CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9526FCC6-F521-4147-84C2-D29B9D3DB4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{C0BCEDA8-E2AB-4AFF-981A-C89CBE238845}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>frequency</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>CRASH</t>
+  </si>
+  <si>
+    <t>Passes through - ignore</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -917,6 +920,11 @@
         <v>0.73417080000000001</v>
       </c>
     </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>200</v>
@@ -1103,6 +1111,9 @@
       </c>
       <c r="E30" s="7">
         <v>9.8170300000000002E-2</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
       </c>
       <c r="L30" s="2">
         <v>19.997564000000001</v>
